--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H2">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J2">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>9.904894158524444</v>
+        <v>2.277118248582667</v>
       </c>
       <c r="R2">
-        <v>89.14404742671999</v>
+        <v>20.494064237244</v>
       </c>
       <c r="S2">
-        <v>0.1127475156370786</v>
+        <v>0.03443053846282344</v>
       </c>
       <c r="T2">
-        <v>0.1127475156370786</v>
+        <v>0.03443053846282344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H3">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J3">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>14.64605487392666</v>
+        <v>2.634403404776</v>
       </c>
       <c r="R3">
-        <v>131.81449386534</v>
+        <v>23.709630642984</v>
       </c>
       <c r="S3">
-        <v>0.1667161985268056</v>
+        <v>0.03983277013004898</v>
       </c>
       <c r="T3">
-        <v>0.1667161985268056</v>
+        <v>0.03983277013004898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3431566666666666</v>
+        <v>0.061724</v>
       </c>
       <c r="H4">
-        <v>1.02947</v>
+        <v>0.185172</v>
       </c>
       <c r="I4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432048</v>
       </c>
       <c r="J4">
-        <v>0.3726279341911566</v>
+        <v>0.09652262708432047</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>8.184497312578886</v>
+        <v>1.472155319110667</v>
       </c>
       <c r="R4">
-        <v>73.66047581320998</v>
+        <v>13.249397871996</v>
       </c>
       <c r="S4">
-        <v>0.09316422002727236</v>
+        <v>0.02225931849144805</v>
       </c>
       <c r="T4">
-        <v>0.09316422002727236</v>
+        <v>0.02225931849144805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.675792</v>
       </c>
       <c r="I5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J5">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>16.12338620037689</v>
+        <v>20.60774060888711</v>
       </c>
       <c r="R5">
-        <v>145.110475803392</v>
+        <v>185.469665479984</v>
       </c>
       <c r="S5">
-        <v>0.1835326767409359</v>
+        <v>0.3115936583916133</v>
       </c>
       <c r="T5">
-        <v>0.1835326767409359</v>
+        <v>0.3115936583916133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.675792</v>
       </c>
       <c r="I6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J6">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
         <v>23.84114310206933</v>
@@ -818,10 +818,10 @@
         <v>214.570287918624</v>
       </c>
       <c r="S6">
-        <v>0.2713839857029663</v>
+        <v>0.3604834290377327</v>
       </c>
       <c r="T6">
-        <v>0.2713839857029662</v>
+        <v>0.3604834290377327</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.675792</v>
       </c>
       <c r="I7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273214</v>
       </c>
       <c r="J7">
-        <v>0.6065712561746013</v>
+        <v>0.8735221647273215</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
-        <v>13.32288956496177</v>
+        <v>13.32288956496178</v>
       </c>
       <c r="R7">
         <v>119.906006084656</v>
       </c>
       <c r="S7">
-        <v>0.1516545937306991</v>
+        <v>0.2014450772979754</v>
       </c>
       <c r="T7">
-        <v>0.1516545937306991</v>
+        <v>0.2014450772979754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.057467</v>
       </c>
       <c r="I8">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J8">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N8">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O8">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P8">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q8">
-        <v>0.5529102864657778</v>
+        <v>0.7066897500232221</v>
       </c>
       <c r="R8">
-        <v>4.976192578192</v>
+        <v>6.360207750209</v>
       </c>
       <c r="S8">
-        <v>0.006293783676179002</v>
+        <v>0.01068530746464409</v>
       </c>
       <c r="T8">
-        <v>0.006293783676179002</v>
+        <v>0.01068530746464409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.057467</v>
       </c>
       <c r="I9">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J9">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N9">
         <v>128.041122</v>
       </c>
       <c r="O9">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P9">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q9">
-        <v>0.8175710175526666</v>
+        <v>0.8175710175526665</v>
       </c>
       <c r="R9">
-        <v>7.358139157974</v>
+        <v>7.358139157973998</v>
       </c>
       <c r="S9">
-        <v>0.009306419595267408</v>
+        <v>0.01236185708996784</v>
       </c>
       <c r="T9">
-        <v>0.009306419595267408</v>
+        <v>0.01236185708996784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.057467</v>
       </c>
       <c r="I10">
-        <v>0.02080080963424208</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="J10">
-        <v>0.02080080963424209</v>
+        <v>0.02995520818835809</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N10">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O10">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P10">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q10">
-        <v>0.4568744179645554</v>
+        <v>0.4568744179645556</v>
       </c>
       <c r="R10">
         <v>4.111869761681</v>
       </c>
       <c r="S10">
-        <v>0.005200606362795673</v>
+        <v>0.006908043633746163</v>
       </c>
       <c r="T10">
-        <v>0.005200606362795672</v>
+        <v>0.006908043633746164</v>
       </c>
     </row>
   </sheetData>
